--- a/data/Export/Zac/Halogenated_Hydrocarbons_Exports.xlsx
+++ b/data/Export/Zac/Halogenated_Hydrocarbons_Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f573490875f27/Desktop/Interactive Cartography and Geovisualization(GEOG_575)/Geog575_2023_Final_Project/data/Export/Zac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{99438200-64D9-40BB-A487-2D4674C43410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D30F2E6C-6FFA-4AC3-BF55-CF7927B316B2}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{99438200-64D9-40BB-A487-2D4674C43410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECAB0CDB-94AE-45A7-8247-72AA70033B86}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E3A11E9C-E408-4AF1-B318-A72A0779CA46}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E3A11E9C-E408-4AF1-B318-A72A0779CA46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +436,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,6 +496,12 @@
       <c r="G2">
         <v>633456403</v>
       </c>
+      <c r="H2">
+        <v>24.443852138563699</v>
+      </c>
+      <c r="I2">
+        <v>-102.35921031927801</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -515,6 +525,12 @@
       <c r="G3">
         <v>429672816</v>
       </c>
+      <c r="H3">
+        <v>3.7077015546259502</v>
+      </c>
+      <c r="I3">
+        <v>-73.227821585723802</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -538,6 +554,12 @@
       <c r="G4">
         <v>344362261</v>
       </c>
+      <c r="H4">
+        <v>52.137439469580599</v>
+      </c>
+      <c r="I4">
+        <v>5.4973504620554898</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -590,6 +612,12 @@
       <c r="G6">
         <v>168647049</v>
       </c>
+      <c r="H6">
+        <v>22.637614278231499</v>
+      </c>
+      <c r="I6">
+        <v>79.209953254598204</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -642,6 +670,12 @@
       <c r="G8">
         <v>132773158</v>
       </c>
+      <c r="H8">
+        <v>-10.011753187194801</v>
+      </c>
+      <c r="I8">
+        <v>-52.0223002051737</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -665,6 +699,12 @@
       <c r="G9">
         <v>119492620</v>
       </c>
+      <c r="H9">
+        <v>50.742904888487701</v>
+      </c>
+      <c r="I9">
+        <v>4.8438567798118601</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -687,6 +727,12 @@
       </c>
       <c r="G10">
         <v>112360463</v>
+      </c>
+      <c r="H10">
+        <v>23.6914235867171</v>
+      </c>
+      <c r="I10">
+        <v>120.963442130167</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
